--- a/dashboard/static/openspace.xlsx
+++ b/dashboard/static/openspace.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Boundary Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity Line</t>
   </si>
   <si>
     <t xml:space="preserve">Electricity Line_YN</t>
@@ -155,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,6 +179,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,8 +228,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP1" activeCellId="0" sqref="AP1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE6" activeCellId="0" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -258,7 +270,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.07"/>
@@ -270,7 +282,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="110.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="52.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="48.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="42.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="42.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="57.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="135.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.24"/>
@@ -279,20 +291,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="34.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="51.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="110.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="66.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="153.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="46.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="211.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="83.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="70.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="179.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="58.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="44" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="51.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="110.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="66.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="153.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="46.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="211.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="83.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="70.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="179.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="58.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="45" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,7 +398,7 @@
       <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="0" t="s">
@@ -421,6 +433,9 @@
       </c>
       <c r="AP1" s="0" t="s">
         <v>41</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/static/openspace.xlsx
+++ b/dashboard/static/openspace.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">SN</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">Boundary Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity Line</t>
   </si>
   <si>
     <t xml:space="preserve">Electricity Line_YN</t>
@@ -158,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -179,11 +176,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,12 +220,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,10 +242,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE6" activeCellId="0" sqref="AE6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD5" activeCellId="0" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,20 +279,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="34.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="51.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="110.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="66.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="153.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="46.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="211.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="83.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="70.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="179.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="58.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="45" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="51.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="110.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="66.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="153.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="46.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="211.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="83.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="70.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="179.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="58.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="44" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,7 +386,7 @@
       <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="0" t="s">
@@ -433,9 +421,6 @@
       </c>
       <c r="AP1" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
